--- a/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0246918714070909</v>
+        <v>0.02353887213745994</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01030746204722434</v>
+        <v>0.009495335151548236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01624296182696324</v>
+        <v>0.01780042816427332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03747414345148029</v>
+        <v>0.0368431775501668</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02032432432683915</v>
+        <v>0.02030379944339975</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02274697936325314</v>
+        <v>0.02267999992151027</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03496644255142708</v>
+        <v>0.03493629322307332</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.017987873303093</v>
+        <v>0.01842057886251559</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0231374497461169</v>
+        <v>0.02435420159234079</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05220125346068127</v>
+        <v>0.05190917957699965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03231664617889704</v>
+        <v>0.03275362638587917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04782400217171642</v>
+        <v>0.04848353219894549</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06474351030366232</v>
+        <v>0.06420107787463239</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04114866458070084</v>
+        <v>0.04142820981196078</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05294886289640278</v>
+        <v>0.05319590172362309</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05442959907912116</v>
+        <v>0.05473969779698914</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03331481273380849</v>
+        <v>0.03254567113771105</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04527121252760529</v>
+        <v>0.04549609142506386</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01693700725223549</v>
+        <v>0.01721414093493334</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007877675743010302</v>
+        <v>0.00760949761088294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02106131559498093</v>
+        <v>0.02079591267046854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.011619194935026</v>
+        <v>0.01169575035532576</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01847867956206327</v>
+        <v>0.01850718117219231</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01297018822404481</v>
+        <v>0.01273498263872426</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01566967132886954</v>
+        <v>0.01565755976850447</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01494351913515739</v>
+        <v>0.01445315494949166</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01900142625406106</v>
+        <v>0.01887029740129387</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03595242773171412</v>
+        <v>0.03569984256227377</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02002923430429188</v>
+        <v>0.01899424594182135</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03738960362681153</v>
+        <v>0.03820533059615339</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02677097421513833</v>
+        <v>0.02636839002717397</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03652148440099286</v>
+        <v>0.03693052497842603</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02618222490099965</v>
+        <v>0.0265221417512949</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02678183895162116</v>
+        <v>0.02782887556939043</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02499515578014311</v>
+        <v>0.02570150925695017</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02997805421316375</v>
+        <v>0.0302886546563696</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006042174717397444</v>
+        <v>0.006112597485076268</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01693605383827395</v>
+        <v>0.01751309401354859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01299907547680532</v>
+        <v>0.01435659618303022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02068152358047068</v>
+        <v>0.02000777802387575</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01767350388138597</v>
+        <v>0.01860976154306725</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02571069136522512</v>
+        <v>0.02651168407984293</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01614347928371049</v>
+        <v>0.01566021731270026</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02203869280339947</v>
+        <v>0.01998283602281074</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02472582417485032</v>
+        <v>0.02426324253830384</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.031420949146886</v>
+        <v>0.03169355938001645</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05611775198059273</v>
+        <v>0.05399809296869217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04389111544993553</v>
+        <v>0.04574567687707566</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05822097315142982</v>
+        <v>0.06070498186923826</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05489677201792743</v>
+        <v>0.05669031652996558</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06514377883968639</v>
+        <v>0.06393711057470602</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03861157516753164</v>
+        <v>0.03861162849699182</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04867547185285771</v>
+        <v>0.0473299139820444</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04777536178285839</v>
+        <v>0.04854147278052805</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01274266042484477</v>
+        <v>0.0125233209035793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02226044886678035</v>
+        <v>0.02297588681398597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02226853094517024</v>
+        <v>0.02230024662466142</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02122170305908648</v>
+        <v>0.02093682003322617</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01906114037060278</v>
+        <v>0.01846518899673225</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02342302309368378</v>
+        <v>0.02359383805468131</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02375335846115182</v>
+        <v>0.02260302264582576</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03581429372518861</v>
+        <v>0.03616875975542282</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03521107535722164</v>
+        <v>0.03455137583785173</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03334263467658857</v>
+        <v>0.03370470951021684</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02729618112705513</v>
+        <v>0.02715107338177076</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03288113111775823</v>
+        <v>0.03225824951995332</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16996</v>
+        <v>16202</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7892</v>
+        <v>7270</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7430</v>
+        <v>8142</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35936</v>
+        <v>35331</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22581</v>
+        <v>22559</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14532</v>
+        <v>14490</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>57600</v>
+        <v>57550</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33759</v>
+        <v>34571</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25365</v>
+        <v>26699</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35931</v>
+        <v>35730</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24745</v>
+        <v>25079</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21876</v>
+        <v>22177</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62086</v>
+        <v>61566</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45719</v>
+        <v>46029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33828</v>
+        <v>33985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>89661</v>
+        <v>90172</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>62523</v>
+        <v>61080</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49631</v>
+        <v>49877</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22208</v>
+        <v>22572</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12922</v>
+        <v>12482</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35733</v>
+        <v>35282</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15924</v>
+        <v>16029</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28508</v>
+        <v>28552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22162</v>
+        <v>21761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>42022</v>
+        <v>41990</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>47565</v>
+        <v>46004</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>64706</v>
+        <v>64259</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47142</v>
+        <v>46811</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32853</v>
+        <v>31156</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>63435</v>
+        <v>64819</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36690</v>
+        <v>36139</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>56343</v>
+        <v>56974</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44738</v>
+        <v>45319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>71823</v>
+        <v>74631</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>79560</v>
+        <v>81808</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>102085</v>
+        <v>103143</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2725</v>
+        <v>2756</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7209</v>
+        <v>7455</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6490</v>
+        <v>7167</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8433</v>
+        <v>8158</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7287</v>
+        <v>7673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13069</v>
+        <v>13476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13862</v>
+        <v>13447</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18468</v>
+        <v>16746</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>24913</v>
+        <v>24447</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14169</v>
+        <v>14292</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23888</v>
+        <v>22986</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21912</v>
+        <v>22838</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23740</v>
+        <v>24753</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22635</v>
+        <v>23375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33114</v>
+        <v>32501</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>33156</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40790</v>
+        <v>39663</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>48137</v>
+        <v>48909</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36083</v>
+        <v>35462</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>59063</v>
+        <v>60961</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>68278</v>
+        <v>68375</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>60607</v>
+        <v>59794</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>112418</v>
+        <v>108903</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>129042</v>
+        <v>129983</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67261</v>
+        <v>64004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>95025</v>
+        <v>95965</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>107961</v>
+        <v>105938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95224</v>
+        <v>96258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>160986</v>
+        <v>160130</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>181148</v>
+        <v>177717</v>
       </c>
     </row>
     <row r="20">
